--- a/Tables/Appendix_13_2.xlsx
+++ b/Tables/Appendix_13_2.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -877,6 +877,110 @@
       </c>
       <c r="P9" t="n">
         <v>2.120243199988944</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Skew</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.06451575921606509</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2574506451102492</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.9283948927462855</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.03016158680112588</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.1698704420302799</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.6029216069692411</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.07241983891177253</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.0902379369887535</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.2848710994473009</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.1064864897558277</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.1769551329396586</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.5841712369442229</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.1405024599276742</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.2641223436819167</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.902174943080626</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Kurtosis</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.05214308135784318</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2227796064515193</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.467607308376779</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.04188873587686404</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.1513229314737305</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.5614363657300943</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.03507243460420595</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.1081846721906223</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.04330227451385316</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.0406558589406405</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.1503052268638503</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.4980789524414102</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.05011664734479604</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.2214389167092934</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.358337221290909</v>
       </c>
     </row>
   </sheetData>
